--- a/1.해양 물리-v0.3.xlsx
+++ b/1.해양 물리-v0.3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPDEV\Desktop\작업서식최신 - 0714\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16422060-1B1D-4695-92AC-0EB44C0BAA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-84" windowWidth="23256" windowHeight="12576" tabRatio="911" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-84" windowWidth="23256" windowHeight="12576" tabRatio="911"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="13" r:id="rId1"/>
@@ -34,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6182" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="444">
   <si>
     <t>정점번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2873,11 +2867,27 @@
     <t>2021.07.15</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <t>ver. 0.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡다한거 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서준영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="00"/>
@@ -3356,15 +3366,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3376,9 +3377,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3404,18 +3402,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 강조색6" xfId="2" builtinId="50"/>
     <cellStyle name="60% - 강조색6" xfId="3" builtinId="52"/>
-    <cellStyle name="Normal" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal" xfId="5"/>
     <cellStyle name="강조색1" xfId="1" builtinId="29"/>
-    <cellStyle name="쉼표 [0] 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="표준 2 10" xfId="9" xr:uid="{6AC0D173-D0DA-415C-89FC-F77BFEA99ABC}"/>
-    <cellStyle name="표준 2 2" xfId="7" xr:uid="{37755882-499A-4487-8188-2A6E096D2DFB}"/>
-    <cellStyle name="표준 5" xfId="8" xr:uid="{F73B49E3-0601-4EB8-A712-5259B79A70AF}"/>
+    <cellStyle name="표준 2" xfId="4"/>
+    <cellStyle name="표준 2 10" xfId="9"/>
+    <cellStyle name="표준 2 2" xfId="7"/>
+    <cellStyle name="표준 5" xfId="8"/>
   </cellStyles>
   <dxfs count="321">
     <dxf>
@@ -5967,342 +5977,352 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C321D3CA-50C8-43B5-8F1D-6126B6B6A946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="7.75" style="66" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="66" customWidth="1"/>
-    <col min="4" max="4" width="53.75" style="66" customWidth="1"/>
-    <col min="5" max="6" width="11.875" style="66" customWidth="1"/>
-    <col min="7" max="8" width="7.75" style="66" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="66"/>
+    <col min="1" max="2" width="7.69921875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="53.69921875" style="63" customWidth="1"/>
+    <col min="5" max="6" width="11.8984375" style="63" customWidth="1"/>
+    <col min="7" max="8" width="7.69921875" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="67" t="s">
+    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="72" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="68" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="69" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="69" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="67" t="s">
         <v>436</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7" s="70">
+        <v>2022.07</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65" t="s">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62" t="s">
         <v>432</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65" t="s">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62" t="s">
         <v>432</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6319,34 +6339,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.19921875" style="5" customWidth="1"/>
     <col min="12" max="12" width="17.5" style="5" customWidth="1"/>
     <col min="13" max="13" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="38" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="39" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -6390,25 +6410,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -6441,7 +6461,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -6474,7 +6494,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
@@ -6507,7 +6527,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,7 +6560,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>124</v>
       </c>
@@ -6578,7 +6598,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>393</v>
       </c>
@@ -6617,7 +6637,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>183</v>
       </c>
@@ -6654,7 +6674,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
@@ -6692,7 +6712,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
@@ -6724,7 +6744,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -6756,7 +6776,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>240</v>
       </c>
@@ -6788,7 +6808,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>240</v>
       </c>
@@ -6820,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
@@ -6852,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
@@ -6884,7 +6904,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>240</v>
       </c>
@@ -6919,7 +6939,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>248</v>
       </c>
@@ -6955,42 +6975,42 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -7157,37 +7177,37 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="23.3984375" style="5" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="34" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -7240,18 +7260,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="9"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
@@ -7261,7 +7281,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -7299,7 +7319,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>124</v>
       </c>
@@ -7343,7 +7363,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>394</v>
       </c>
@@ -7388,7 +7408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>183</v>
       </c>
@@ -7430,7 +7450,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>62</v>
       </c>
@@ -7471,7 +7491,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
@@ -7510,7 +7530,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
@@ -7548,7 +7568,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>240</v>
       </c>
@@ -7586,7 +7606,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>248</v>
       </c>
@@ -7624,7 +7644,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
         <v>248</v>
       </c>
@@ -7665,7 +7685,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
         <v>248</v>
       </c>
@@ -7821,31 +7841,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="30.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24.19921875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" style="4" customWidth="1"/>
     <col min="13" max="34" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -7883,23 +7903,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="9"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>124</v>
       </c>
@@ -7931,7 +7951,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>393</v>
       </c>
@@ -7964,7 +7984,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>183</v>
       </c>
@@ -8010,7 +8030,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>62</v>
       </c>
@@ -8057,7 +8077,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>62</v>
       </c>
@@ -8081,7 +8101,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
@@ -8105,7 +8125,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>62</v>
       </c>
@@ -8129,7 +8149,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
@@ -8153,7 +8173,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>240</v>
       </c>
@@ -8180,7 +8200,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -8207,7 +8227,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>240</v>
       </c>
@@ -8234,7 +8254,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>240</v>
       </c>
@@ -8261,7 +8281,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
@@ -8288,7 +8308,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
@@ -8315,7 +8335,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>240</v>
       </c>
@@ -8342,7 +8362,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>240</v>
       </c>
@@ -8369,7 +8389,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>248</v>
       </c>
@@ -8396,7 +8416,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>248</v>
       </c>
@@ -8423,7 +8443,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>248</v>
       </c>
@@ -8450,7 +8470,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>248</v>
       </c>
@@ -8477,7 +8497,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>248</v>
       </c>
@@ -8504,7 +8524,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>248</v>
       </c>
@@ -8531,7 +8551,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>248</v>
       </c>
@@ -8558,7 +8578,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>248</v>
       </c>
@@ -8585,7 +8605,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>248</v>
       </c>
@@ -8612,7 +8632,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>248</v>
       </c>
@@ -8639,7 +8659,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>248</v>
       </c>
@@ -8666,7 +8686,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>248</v>
       </c>
@@ -8827,36 +8847,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="30" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.25" style="12" customWidth="1"/>
-    <col min="15" max="15" width="25.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.19921875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="25.09765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="10" customWidth="1"/>
     <col min="19" max="19" width="16" style="15" customWidth="1"/>
-    <col min="20" max="20" width="18.375" style="15" customWidth="1"/>
-    <col min="21" max="21" width="25.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" style="15" customWidth="1"/>
+    <col min="21" max="21" width="25.09765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.09765625" style="4" customWidth="1"/>
     <col min="24" max="24" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="17.5" style="4" bestFit="1" customWidth="1"/>
@@ -8865,7 +8885,7 @@
     <col min="34" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -8948,38 +8968,38 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:31" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75"/>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>124</v>
       </c>
@@ -9054,7 +9074,7 @@
         <v>144.80000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>124</v>
       </c>
@@ -9129,7 +9149,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>184</v>
       </c>
@@ -9206,7 +9226,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>183</v>
       </c>
@@ -9281,7 +9301,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>183</v>
       </c>
@@ -9368,7 +9388,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>208</v>
       </c>
@@ -9433,7 +9453,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>208</v>
       </c>
@@ -9498,7 +9518,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>208</v>
       </c>
@@ -9563,7 +9583,7 @@
         <v>258.89999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>208</v>
       </c>
@@ -9628,7 +9648,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>240</v>
       </c>
@@ -9699,7 +9719,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>240</v>
       </c>
@@ -9770,7 +9790,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>240</v>
       </c>
@@ -9844,7 +9864,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>240</v>
       </c>
@@ -9918,7 +9938,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>240</v>
       </c>
@@ -9992,7 +10012,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>240</v>
       </c>
@@ -10063,7 +10083,7 @@
         <v>144.80000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>240</v>
       </c>
@@ -10134,7 +10154,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>248</v>
       </c>
@@ -10206,7 +10226,7 @@
         <v>181.03</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>248</v>
       </c>
@@ -10278,35 +10298,35 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="K28" s="1"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="K29" s="1"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="K30" s="1"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K31" s="1"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K32" s="1"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.4">
       <c r="K33" s="1"/>
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.4">
       <c r="K34" s="1"/>
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.4">
       <c r="K35" s="1"/>
       <c r="L35" s="24"/>
     </row>
@@ -10382,41 +10402,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="30" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="30" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="30" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" style="30" customWidth="1"/>
-    <col min="14" max="14" width="22.25" style="15" customWidth="1"/>
-    <col min="15" max="15" width="25.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.19921875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="22.19921875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="25.09765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="10" customWidth="1"/>
     <col min="19" max="19" width="16" style="15" customWidth="1"/>
-    <col min="20" max="20" width="18.375" style="10" customWidth="1"/>
-    <col min="21" max="21" width="25.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="26.625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="10.25" style="4" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" style="10" customWidth="1"/>
+    <col min="21" max="21" width="25.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.59765625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="26.59765625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="10.19921875" style="4" customWidth="1"/>
     <col min="27" max="27" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" style="4" customWidth="1"/>
@@ -10424,7 +10444,7 @@
     <col min="38" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -10513,31 +10533,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:29" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75"/>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -10546,7 +10566,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>75</v>
       </c>
@@ -10623,7 +10643,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>75</v>
       </c>
@@ -10697,7 +10717,7 @@
         <v>166.2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>75</v>
       </c>
@@ -10771,7 +10791,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
@@ -10845,7 +10865,7 @@
         <v>168.8</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>75</v>
       </c>
@@ -10919,7 +10939,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>75</v>
       </c>
@@ -10993,7 +11013,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>75</v>
       </c>
@@ -11067,7 +11087,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
@@ -11141,7 +11161,7 @@
         <v>160.4</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>75</v>
       </c>
@@ -11215,7 +11235,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -11289,7 +11309,7 @@
         <v>164.8</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>75</v>
       </c>
@@ -11363,7 +11383,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>75</v>
       </c>
@@ -11437,7 +11457,7 @@
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>75</v>
       </c>
@@ -11511,7 +11531,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>75</v>
       </c>
@@ -11585,7 +11605,7 @@
         <v>146.9</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>75</v>
       </c>
@@ -11659,7 +11679,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>75</v>
       </c>
@@ -11733,7 +11753,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>75</v>
       </c>
@@ -11807,7 +11827,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>75</v>
       </c>
@@ -11881,7 +11901,7 @@
         <v>149.1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>107</v>
       </c>
@@ -11955,7 +11975,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>107</v>
       </c>
@@ -12029,7 +12049,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>107</v>
       </c>
@@ -12103,7 +12123,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>107</v>
       </c>
@@ -12177,7 +12197,7 @@
         <v>225.2</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>107</v>
       </c>
@@ -12251,7 +12271,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>107</v>
       </c>
@@ -12325,7 +12345,7 @@
         <v>224.7</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>124</v>
       </c>
@@ -12410,7 +12430,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>393</v>
       </c>
@@ -12495,7 +12515,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>183</v>
       </c>
@@ -12574,7 +12594,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>208</v>
       </c>
@@ -12650,7 +12670,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>240</v>
       </c>
@@ -12729,7 +12749,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>240</v>
       </c>
@@ -12803,7 +12823,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>240</v>
       </c>
@@ -12877,7 +12897,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>240</v>
       </c>
@@ -12951,7 +12971,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>240</v>
       </c>
@@ -13025,7 +13045,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>248</v>
       </c>
@@ -13102,7 +13122,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>248</v>
       </c>
@@ -13179,7 +13199,7 @@
         <v>203.2</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>248</v>
       </c>
@@ -13256,7 +13276,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>248</v>
       </c>
@@ -13333,7 +13353,7 @@
         <v>142.19999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>248</v>
       </c>
@@ -13410,7 +13430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>248</v>
       </c>
@@ -13487,7 +13507,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>248</v>
       </c>
@@ -13564,7 +13584,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>248</v>
       </c>
@@ -13641,7 +13661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>248</v>
       </c>
@@ -13718,7 +13738,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>248</v>
       </c>
@@ -13795,7 +13815,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>248</v>
       </c>
@@ -13872,7 +13892,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>248</v>
       </c>
@@ -14310,49 +14330,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="30" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" style="30" customWidth="1"/>
-    <col min="14" max="14" width="22.25" style="12" customWidth="1"/>
-    <col min="15" max="15" width="25.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.19921875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="22.19921875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="25.09765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="21" customWidth="1"/>
-    <col min="20" max="20" width="18.375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.5" style="34" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16" style="34" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="17.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.19921875" style="34" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.5" style="34" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -14444,31 +14464,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75"/>
       <c r="W2" s="9"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="9"/>
@@ -14478,7 +14498,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="32"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -14562,7 +14582,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -14643,7 +14663,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -14724,7 +14744,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -14805,7 +14825,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -14886,7 +14906,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -14967,7 +14987,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>124</v>
       </c>
@@ -15053,7 +15073,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>184</v>
       </c>
@@ -15137,7 +15157,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>184</v>
       </c>
@@ -15221,7 +15241,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>393</v>
       </c>
@@ -15305,7 +15325,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>393</v>
       </c>
@@ -15389,7 +15409,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>393</v>
       </c>
@@ -15473,7 +15493,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>393</v>
       </c>
@@ -15557,7 +15577,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>183</v>
       </c>
@@ -15642,7 +15662,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>62</v>
       </c>
@@ -15728,7 +15748,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>208</v>
       </c>
@@ -15808,7 +15828,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>240</v>
       </c>
@@ -15888,7 +15908,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>240</v>
       </c>
@@ -15969,7 +15989,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>240</v>
       </c>
@@ -16050,7 +16070,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>240</v>
       </c>
@@ -16130,7 +16150,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>240</v>
       </c>
@@ -16210,7 +16230,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>240</v>
       </c>
@@ -16290,7 +16310,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>240</v>
       </c>
@@ -16373,7 +16393,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>240</v>
       </c>
@@ -16456,7 +16476,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>240</v>
       </c>
@@ -16539,7 +16559,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>240</v>
       </c>
@@ -16622,7 +16642,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>248</v>
       </c>
@@ -16856,47 +16876,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" style="30" customWidth="1"/>
-    <col min="14" max="14" width="22.25" style="12" customWidth="1"/>
-    <col min="15" max="15" width="25.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.19921875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="22.19921875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="25.09765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="12" customWidth="1"/>
-    <col min="20" max="20" width="18.375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.25" style="1" customWidth="1"/>
-    <col min="23" max="24" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="25.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" style="1" customWidth="1"/>
+    <col min="23" max="24" width="17.09765625" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.5" style="34" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16" style="34" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="18.59765625" style="5" customWidth="1"/>
     <col min="29" max="34" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -16982,31 +17002,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75"/>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -17014,7 +17034,7 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -17092,7 +17112,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -17167,7 +17187,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -17242,7 +17262,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -17317,7 +17337,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -17392,7 +17412,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -17467,7 +17487,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>124</v>
       </c>
@@ -17547,7 +17567,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>184</v>
       </c>
@@ -17625,7 +17645,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>184</v>
       </c>
@@ -17703,7 +17723,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>393</v>
       </c>
@@ -17781,7 +17801,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>183</v>
       </c>
@@ -17866,7 +17886,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
@@ -17952,7 +17972,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>208</v>
       </c>
@@ -18024,7 +18044,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>208</v>
       </c>
@@ -18096,7 +18116,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>208</v>
       </c>
@@ -18168,7 +18188,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>208</v>
       </c>
@@ -18240,7 +18260,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>208</v>
       </c>
@@ -18312,7 +18332,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>208</v>
       </c>
@@ -18384,7 +18404,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>208</v>
       </c>
@@ -18456,7 +18476,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>208</v>
       </c>
@@ -18528,7 +18548,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>208</v>
       </c>
@@ -18600,7 +18620,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>208</v>
       </c>
@@ -18672,7 +18692,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>208</v>
       </c>
@@ -18744,7 +18764,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>208</v>
       </c>
@@ -18816,7 +18836,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>240</v>
       </c>
@@ -18891,7 +18911,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>240</v>
       </c>
@@ -18968,7 +18988,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>240</v>
       </c>
@@ -19045,7 +19065,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>240</v>
       </c>
@@ -19122,7 +19142,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>248</v>
       </c>
@@ -19405,45 +19425,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="58" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" style="30" customWidth="1"/>
-    <col min="14" max="14" width="22.25" style="12" customWidth="1"/>
-    <col min="15" max="15" width="25.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.19921875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="22.19921875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="25.09765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="10" customWidth="1"/>
     <col min="19" max="19" width="16" style="12" customWidth="1"/>
-    <col min="20" max="20" width="18.375" style="10" customWidth="1"/>
-    <col min="21" max="21" width="25.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" style="10" customWidth="1"/>
+    <col min="21" max="21" width="25.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.5" style="34" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.5" style="34" bestFit="1" customWidth="1"/>
     <col min="26" max="34" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -19520,36 +19540,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:30" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75"/>
       <c r="W2" s="8"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -19618,7 +19638,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -19684,7 +19704,7 @@
         <v>359.2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -19750,7 +19770,7 @@
         <v>349.8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>124</v>
       </c>
@@ -19836,7 +19856,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>393</v>
       </c>
@@ -19905,7 +19925,7 @@
         <v>145.9</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>393</v>
       </c>
@@ -19974,7 +19994,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>393</v>
       </c>
@@ -20043,7 +20063,7 @@
         <v>180.6</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>183</v>
       </c>
@@ -20128,7 +20148,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
@@ -20212,7 +20232,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>208</v>
       </c>
@@ -20290,7 +20310,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>208</v>
       </c>
@@ -20368,7 +20388,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>208</v>
       </c>
@@ -20446,7 +20466,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>208</v>
       </c>
@@ -20509,7 +20529,7 @@
         <v>166.87</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>208</v>
       </c>
@@ -20572,7 +20592,7 @@
         <v>169.81</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>208</v>
       </c>
@@ -20635,7 +20655,7 @@
         <v>173.08</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>208</v>
       </c>
@@ -20698,7 +20718,7 @@
         <v>310.97000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>208</v>
       </c>
@@ -20761,7 +20781,7 @@
         <v>309.76</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>208</v>
       </c>
@@ -20824,7 +20844,7 @@
         <v>281.74</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>208</v>
       </c>
@@ -20887,7 +20907,7 @@
         <v>305.58999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>208</v>
       </c>
@@ -20950,7 +20970,7 @@
         <v>296.99</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>208</v>
       </c>
@@ -21013,7 +21033,7 @@
         <v>111.06</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>208</v>
       </c>
@@ -21076,7 +21096,7 @@
         <v>145.75</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>208</v>
       </c>
@@ -21139,7 +21159,7 @@
         <v>152.69999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>208</v>
       </c>
@@ -21202,7 +21222,7 @@
         <v>156.61000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>208</v>
       </c>
@@ -21265,7 +21285,7 @@
         <v>317.74</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>208</v>
       </c>
@@ -21328,7 +21348,7 @@
         <v>313.67</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>208</v>
       </c>
@@ -21391,7 +21411,7 @@
         <v>2298.83</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>240</v>
       </c>
@@ -21456,7 +21476,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>240</v>
       </c>
@@ -21521,7 +21541,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>240</v>
       </c>
@@ -21586,7 +21606,7 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>240</v>
       </c>
@@ -21654,7 +21674,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>240</v>
       </c>
@@ -21722,7 +21742,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>240</v>
       </c>
@@ -21790,7 +21810,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>248</v>
       </c>
@@ -21858,10 +21878,10 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="W38" s="4"/>
     </row>
   </sheetData>
@@ -22085,36 +22105,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="23.3984375" style="5" customWidth="1"/>
     <col min="14" max="15" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="34" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -22167,18 +22187,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="9"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
@@ -22188,7 +22208,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -22233,7 +22253,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>124</v>
       </c>
@@ -22292,7 +22312,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>393</v>
       </c>
@@ -22337,7 +22357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>183</v>
       </c>
@@ -22383,7 +22403,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>62</v>
       </c>
@@ -22428,7 +22448,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>208</v>
       </c>
@@ -22467,7 +22487,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
         <v>240</v>
       </c>
@@ -22509,7 +22529,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="28" t="s">
         <v>240</v>
       </c>
@@ -22551,7 +22571,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
         <v>240</v>
       </c>
@@ -22593,7 +22613,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
         <v>240</v>
       </c>
@@ -22635,7 +22655,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
         <v>248</v>
       </c>
@@ -22772,36 +22792,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XER14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="23.3984375" style="5" customWidth="1"/>
     <col min="14" max="15" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.5" style="5" customWidth="1"/>
     <col min="18" max="21" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -22854,18 +22874,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="9"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
@@ -22875,7 +22895,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -22917,7 +22937,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>393</v>
       </c>
@@ -22962,7 +22982,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>418</v>
       </c>
@@ -23008,7 +23028,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="6" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>183</v>
       </c>
@@ -23054,7 +23074,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>62</v>
       </c>
@@ -23099,7 +23119,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>208</v>
       </c>
@@ -49717,7 +49737,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
@@ -49758,7 +49778,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>240</v>
       </c>
@@ -49799,7 +49819,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>240</v>
       </c>
@@ -49840,7 +49860,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -49881,7 +49901,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>248</v>
       </c>
@@ -49923,7 +49943,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16372" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I14" s="10"/>
     </row>
   </sheetData>
@@ -50031,14 +50051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
@@ -50047,23 +50067,23 @@
     <col min="5" max="5" width="11" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" style="34" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="34" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.19921875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.19921875" style="34" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="34" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" style="34" customWidth="1"/>
     <col min="16" max="16" width="0" style="36" hidden="1"/>
     <col min="17" max="17" width="16" style="34" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.19921875" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="38" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="39" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -50122,18 +50142,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="9" t="s">
         <v>425</v>
       </c>
@@ -50148,7 +50168,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -50196,7 +50216,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -50244,7 +50264,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
@@ -50306,7 +50326,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>183</v>
       </c>
@@ -50361,7 +50381,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>62</v>
       </c>
@@ -50417,7 +50437,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
@@ -50467,7 +50487,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
@@ -50517,7 +50537,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>240</v>
       </c>
@@ -50567,7 +50587,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>240</v>
       </c>
@@ -50617,7 +50637,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -50670,7 +50690,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>248</v>
       </c>
@@ -50827,21 +50847,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100CD74F1E663CF9749970D57BD51D6D422" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="1f7d1bbe775024f83e987e8ce1a25147">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="262f62d6-9848-4554-bf1a-9a4ed901b9bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="326b817c8d0020ab38a06e69e4f47ae1" ns3:_="">
     <xsd:import namespace="262f62d6-9848-4554-bf1a-9a4ed901b9bd"/>
@@ -50973,10 +50978,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C177D6F9-6879-410D-AAF1-9809291D753F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A00357-7D05-443D-A844-A12880BAE8E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="262f62d6-9848-4554-bf1a-9a4ed901b9bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -50998,19 +51028,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A00357-7D05-443D-A844-A12880BAE8E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C177D6F9-6879-410D-AAF1-9809291D753F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="262f62d6-9848-4554-bf1a-9a4ed901b9bd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>